--- a/Excel sheets/Shopping List 18.03.2025.xlsx
+++ b/Excel sheets/Shopping List 18.03.2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fotop\Documents\Semester Project 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fotop\Documents\Semester Project 2\GitHub Sem. Project 2\semester-project-2-\Excel sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ED5A35-7F26-4467-8C29-05AEA725EB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DBBA8D-CD44-40CC-BA8C-D8F2F01E41C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{16E8840D-5B70-415D-8A66-4D39B7A66DDB}"/>
   </bookViews>
@@ -275,7 +275,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -312,6 +312,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -650,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2FAF20B-D684-4DE0-825C-66A32388C60F}">
-  <dimension ref="C3:H20"/>
+  <dimension ref="C3:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -949,6 +950,9 @@
       <c r="H19" s="12"/>
     </row>
     <row r="20" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="D21" s="16"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H9" r:id="rId1" xr:uid="{EE5E5FF0-4CA5-4428-BA21-829952FAD4EB}"/>

--- a/Excel sheets/Shopping List 18.03.2025.xlsx
+++ b/Excel sheets/Shopping List 18.03.2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fotop\Documents\Semester Project 2\GitHub Sem. Project 2\semester-project-2-\Excel sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DBBA8D-CD44-40CC-BA8C-D8F2F01E41C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D51C57-195B-4C10-9BB8-E422335764AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{16E8840D-5B70-415D-8A66-4D39B7A66DDB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t xml:space="preserve">Shopping list </t>
   </si>
@@ -150,6 +150,18 @@
   </si>
   <si>
     <t>8559, 1437, 4385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minicompressor </t>
+  </si>
+  <si>
+    <t>dafuq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Roll of filament </t>
+  </si>
+  <si>
+    <t>https://gst3d.eu/product/black/</t>
   </si>
 </sst>
 </file>
@@ -275,7 +287,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -313,6 +325,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -654,7 +670,7 @@
   <dimension ref="C3:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -937,20 +953,53 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D19" s="12" t="s">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C18" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="13">
+        <v>224</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="D19" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="11">
+        <v>98.62</v>
+      </c>
+      <c r="G19" s="18">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D20" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12">
-        <f>F6*G6+F7*G7+F8*G8+F9*G9+F10*G10+F11*G11+F12*G12+F13*G13+F14*G14+F15*G15+F16*G16</f>
-        <v>1290.55</v>
-      </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="E20" s="12"/>
+      <c r="F20" s="12">
+        <f>F6*G6+F7*G7+F8*G8+F9*G9+F10*G10+F11*G11+F12*G12+F13*G13+F14*G14+F15*G15+F16*G16+F17*G17+F18*G18</f>
+        <v>1571.55</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="D21" s="16"/>
     </row>
   </sheetData>
@@ -967,6 +1016,7 @@
     <hyperlink ref="H15" r:id="rId10" xr:uid="{ACB7A6CF-35EF-4E18-BA6C-B0F779739D12}"/>
     <hyperlink ref="H16" r:id="rId11" xr:uid="{DBC6243A-5EE6-4B9E-93FF-A7E3EE05E93A}"/>
     <hyperlink ref="H17" r:id="rId12" xr:uid="{5BC15C99-8B9F-4153-91C4-2C763302A8CC}"/>
+    <hyperlink ref="H19" r:id="rId13" xr:uid="{92C7650A-CDE9-4228-9917-BF722B7D48F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel sheets/Shopping List 18.03.2025.xlsx
+++ b/Excel sheets/Shopping List 18.03.2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fotop\Documents\Semester Project 2\GitHub Sem. Project 2\semester-project-2-\Excel sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobia\Desktop\semester project 2\semester-project-2-\Excel sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D51C57-195B-4C10-9BB8-E422335764AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B608341E-E3E8-4131-BC51-2AB1D4D5289E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{16E8840D-5B70-415D-8A66-4D39B7A66DDB}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{16E8840D-5B70-415D-8A66-4D39B7A66DDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t xml:space="preserve">Shopping list </t>
   </si>
@@ -156,12 +156,6 @@
   </si>
   <si>
     <t>dafuq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Roll of filament </t>
-  </si>
-  <si>
-    <t>https://gst3d.eu/product/black/</t>
   </si>
 </sst>
 </file>
@@ -287,7 +281,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -325,16 +319,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
-    <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
+    <cellStyle name="20 % - Farve1" xfId="3" builtinId="30"/>
+    <cellStyle name="Link" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Overskrift 3" xfId="1" builtinId="18"/>
     <cellStyle name="Total" xfId="2" builtinId="25"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -351,7 +341,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -670,25 +660,25 @@
   <dimension ref="C3:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.26953125" customWidth="1"/>
-    <col min="4" max="4" width="62.54296875" customWidth="1"/>
-    <col min="5" max="5" width="18.1796875" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="62.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="75.08984375" customWidth="1"/>
+    <col min="8" max="8" width="75.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" s="15" t="s">
         <v>36</v>
       </c>
@@ -708,12 +698,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C6" s="15" t="s">
         <v>35</v>
       </c>
@@ -733,7 +723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="15" t="s">
         <v>35</v>
       </c>
@@ -753,7 +743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="15" t="s">
         <v>35</v>
       </c>
@@ -773,7 +763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="15" t="s">
         <v>35</v>
       </c>
@@ -793,7 +783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="15" t="s">
         <v>35</v>
       </c>
@@ -813,7 +803,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="15" t="s">
         <v>35</v>
       </c>
@@ -833,7 +823,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C12" s="15" t="s">
         <v>35</v>
       </c>
@@ -853,7 +843,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C13" s="15" t="s">
         <v>35</v>
       </c>
@@ -873,7 +863,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C14" s="15" t="s">
         <v>35</v>
       </c>
@@ -893,7 +883,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C15" s="15" t="s">
         <v>35</v>
       </c>
@@ -913,7 +903,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C16" s="15" t="s">
         <v>35</v>
       </c>
@@ -933,7 +923,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C17" s="15" t="s">
         <v>35</v>
       </c>
@@ -953,7 +943,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" s="15" t="s">
         <v>35</v>
       </c>
@@ -970,24 +960,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="D19" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="11">
-        <v>98.62</v>
-      </c>
-      <c r="G19" s="18">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D19" s="9"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D20" s="12" t="s">
         <v>28</v>
       </c>
@@ -999,7 +979,7 @@
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D21" s="16"/>
     </row>
   </sheetData>
@@ -1016,7 +996,6 @@
     <hyperlink ref="H15" r:id="rId10" xr:uid="{ACB7A6CF-35EF-4E18-BA6C-B0F779739D12}"/>
     <hyperlink ref="H16" r:id="rId11" xr:uid="{DBC6243A-5EE6-4B9E-93FF-A7E3EE05E93A}"/>
     <hyperlink ref="H17" r:id="rId12" xr:uid="{5BC15C99-8B9F-4153-91C4-2C763302A8CC}"/>
-    <hyperlink ref="H19" r:id="rId13" xr:uid="{92C7650A-CDE9-4228-9917-BF722B7D48F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel sheets/Shopping List 18.03.2025.xlsx
+++ b/Excel sheets/Shopping List 18.03.2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobia\Desktop\semester project 2\semester-project-2-\Excel sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B608341E-E3E8-4131-BC51-2AB1D4D5289E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6AA821-A224-4634-A00E-E2BC864B35ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{16E8840D-5B70-415D-8A66-4D39B7A66DDB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{16E8840D-5B70-415D-8A66-4D39B7A66DDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t xml:space="preserve">Shopping list </t>
   </si>
@@ -156,6 +156,18 @@
   </si>
   <si>
     <t>dafuq</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>3D printer filament</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>https://3deksperten.dk/products/3de-basic-pla-black-1-75mm-1kg</t>
   </si>
 </sst>
 </file>
@@ -660,7 +672,7 @@
   <dimension ref="C3:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -961,11 +973,24 @@
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D19" s="9"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="3"/>
+      <c r="C19" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="11">
+        <v>159.94999999999999</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="20" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D20" s="12" t="s">
@@ -973,8 +998,8 @@
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12">
-        <f>F6*G6+F7*G7+F8*G8+F9*G9+F10*G10+F11*G11+F12*G12+F13*G13+F14*G14+F15*G15+F16*G16+F17*G17+F18*G18</f>
-        <v>1571.55</v>
+        <f>F6*G6+F7*G7+F8*G8+F9*G9+F10*G10+F11*G11+F12*G12+F13*G13+F14*G14+F15*G15+F16*G16+F17*G17+F18*G18+F19*G19</f>
+        <v>1891.4499999999998</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
